--- a/StructureDefinition-openelis-patient.xlsx
+++ b/StructureDefinition-openelis-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-22T16:53:33+00:00</t>
+    <t>2021-09-22T17:23:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openelis-patient.xlsx
+++ b/StructureDefinition-openelis-patient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3011" uniqueCount="426">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>OpenlisPatient</t>
+    <t>OpenELISPatient</t>
   </si>
   <si>
     <t>Title</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-22T17:23:21+00:00</t>
+    <t>2022-01-31T19:49:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -456,6 +456,9 @@
     <t>Patient.identifier</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
     <t xml:space="preserve">Identifier
 </t>
   </si>
@@ -469,7 +472,7 @@
     <t>Patients are almost always assigned specific numerical identifiers.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:type.coding.code}
+    <t xml:space="preserve">value:system}
 </t>
   </si>
   <si>
@@ -486,6 +489,223 @@
   </si>
   <si>
     <t>PID-3</t>
+  </si>
+  <si>
+    <t>nationalid</t>
+  </si>
+  <si>
+    <t>Patient.identifier.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Patient.identifier.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Patient.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>Patient.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>Patient.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://openelis-global.org/pat_nationalId</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>Patient.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>Patient.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>Patient.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>subjectnumber</t>
+  </si>
+  <si>
+    <t>http://openelis-global.org/pat_subjectNumber</t>
+  </si>
+  <si>
+    <t>guid</t>
+  </si>
+  <si>
+    <t>http://openelis-global.org/pat_guid</t>
+  </si>
+  <si>
+    <t>uuid</t>
+  </si>
+  <si>
+    <t>http://openelis-global.org/pat_uuid</t>
   </si>
   <si>
     <t>Patient.active</t>
@@ -516,9 +736,6 @@
     <t>statusCode</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>FiveWs.status</t>
   </si>
   <si>
@@ -593,9 +810,6 @@
     <t>Needed for identification of the individual, in combination with (at least) name and birth date.</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>The gender of a person used for administrative purposes.</t>
   </si>
   <si>
@@ -698,10 +912,6 @@
     <t>Patient.maritalStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
     <t>Marital (civil) status of a patient</t>
   </si>
   <si>
@@ -709,9 +919,6 @@
   </si>
   <si>
     <t>Most, if not all systems capture it.</t>
-  </si>
-  <si>
-    <t>extensible</t>
   </si>
   <si>
     <t>The domestic partnership status of a person.</t>
@@ -811,22 +1018,7 @@
     <t>Patient.contact.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
     <t>Patient.contact.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Patient.contact.modifierExtension</t>
@@ -930,10 +1122,6 @@
     <t>Patient.contact.organization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
     <t>Organization that is associated with the contact</t>
   </si>
   <si>
@@ -954,10 +1142,6 @@
   </si>
   <si>
     <t>Patient.contact.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
   </si>
   <si>
     <t>The period during which this contact person or organization is valid to be contacted relating to this patient</t>
@@ -1448,7 +1632,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN46"/>
+  <dimension ref="A1:AN82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1458,7 +1642,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="39.46875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="14.84375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1480,11 +1664,11 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="80.89453125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="51.91796875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="23.64453125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
@@ -2655,7 +2839,7 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>84</v>
+        <v>142</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>76</v>
@@ -2670,17 +2854,17 @@
         <v>85</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>77</v>
@@ -2717,14 +2901,14 @@
         <v>77</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AE11" t="s" s="2">
         <v>141</v>
@@ -2742,16 +2926,16 @@
         <v>96</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>77</v>
@@ -2759,15 +2943,17 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="B12" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="C12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>84</v>
@@ -2776,32 +2962,28 @@
         <v>77</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P12" t="s" s="2">
-        <v>158</v>
-      </c>
+      <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
         <v>77</v>
       </c>
@@ -2845,13 +3027,13 @@
         <v>77</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>77</v>
@@ -2860,16 +3042,16 @@
         <v>96</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>77</v>
@@ -2877,7 +3059,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2885,10 +3067,10 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>77</v>
@@ -2897,23 +3079,19 @@
         <v>77</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>163</v>
+        <v>86</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>77</v>
       </c>
@@ -2961,31 +3139,31 @@
         <v>77</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>169</v>
+        <v>77</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>77</v>
@@ -2993,11 +3171,11 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -3013,23 +3191,21 @@
         <v>77</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>172</v>
+        <v>130</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>77</v>
       </c>
@@ -3065,19 +3241,19 @@
         <v>77</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>77</v>
+        <v>162</v>
       </c>
       <c r="AC14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>77</v>
+        <v>148</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>75</v>
@@ -3089,19 +3265,19 @@
         <v>77</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>178</v>
+        <v>77</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>77</v>
@@ -3109,7 +3285,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3126,7 +3302,7 @@
         <v>77</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>85</v>
@@ -3135,16 +3311,16 @@
         <v>104</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>77</v>
@@ -3169,13 +3345,13 @@
         <v>77</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>77</v>
@@ -3193,7 +3369,7 @@
         <v>77</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>75</v>
@@ -3208,16 +3384,16 @@
         <v>96</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>189</v>
+        <v>77</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>190</v>
+        <v>127</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>77</v>
@@ -3225,7 +3401,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3248,19 +3424,19 @@
         <v>85</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>77</v>
@@ -3285,13 +3461,13 @@
         <v>77</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>77</v>
+        <v>181</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>77</v>
+        <v>182</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>77</v>
@@ -3309,7 +3485,7 @@
         <v>77</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>75</v>
@@ -3324,24 +3500,24 @@
         <v>96</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>198</v>
+        <v>77</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>200</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3349,7 +3525,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>84</v>
@@ -3358,25 +3534,25 @@
         <v>77</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>202</v>
+        <v>98</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>77</v>
@@ -3386,10 +3562,10 @@
         <v>77</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>77</v>
+        <v>190</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>77</v>
+        <v>191</v>
       </c>
       <c r="T17" t="s" s="2">
         <v>77</v>
@@ -3425,7 +3601,7 @@
         <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>75</v>
@@ -3440,16 +3616,16 @@
         <v>96</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>77</v>
@@ -3457,7 +3633,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3468,7 +3644,7 @@
         <v>75</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>77</v>
@@ -3480,20 +3656,18 @@
         <v>85</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>210</v>
+        <v>86</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>77</v>
       </c>
@@ -3505,7 +3679,7 @@
         <v>77</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>77</v>
+        <v>199</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>77</v>
@@ -3541,13 +3715,13 @@
         <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>77</v>
@@ -3556,16 +3730,16 @@
         <v>96</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>216</v>
+        <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>77</v>
@@ -3573,7 +3747,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3593,21 +3767,19 @@
         <v>77</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="M19" s="2"/>
-      <c r="N19" t="s" s="2">
-        <v>222</v>
-      </c>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>77</v>
       </c>
@@ -3631,13 +3803,13 @@
         <v>77</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>223</v>
+        <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>224</v>
+        <v>77</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>225</v>
+        <v>77</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>77</v>
@@ -3655,7 +3827,7 @@
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>75</v>
@@ -3670,16 +3842,16 @@
         <v>96</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>227</v>
+        <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>77</v>
@@ -3687,7 +3859,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3707,23 +3879,21 @@
         <v>77</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>77</v>
       </c>
@@ -3771,7 +3941,7 @@
         <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
@@ -3786,16 +3956,16 @@
         <v>96</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>77</v>
@@ -3803,18 +3973,20 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="B21" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="C21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>77</v>
@@ -3823,22 +3995,20 @@
         <v>77</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>238</v>
+        <v>143</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>239</v>
+        <v>144</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="M21" s="2"/>
       <c r="N21" t="s" s="2">
-        <v>242</v>
+        <v>146</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>77</v>
@@ -3887,7 +4057,7 @@
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>237</v>
+        <v>141</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
@@ -3902,16 +4072,16 @@
         <v>96</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>243</v>
+        <v>149</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>244</v>
+        <v>152</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>77</v>
@@ -3919,7 +4089,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>245</v>
+        <v>154</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3930,7 +4100,7 @@
         <v>75</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>77</v>
@@ -3942,20 +4112,16 @@
         <v>77</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>246</v>
+        <v>86</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>247</v>
+        <v>155</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>77</v>
       </c>
@@ -4003,25 +4169,25 @@
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>245</v>
+        <v>157</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>252</v>
+        <v>158</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>77</v>
@@ -4035,18 +4201,18 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>253</v>
+        <v>159</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>77</v>
@@ -4058,15 +4224,17 @@
         <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>254</v>
+        <v>131</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>77</v>
@@ -4103,34 +4271,34 @@
         <v>77</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>77</v>
+        <v>162</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>77</v>
+        <v>148</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>256</v>
+        <v>163</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>77</v>
@@ -4147,41 +4315,43 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>257</v>
+        <v>164</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>258</v>
+        <v>166</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>77</v>
       </c>
@@ -4205,13 +4375,13 @@
         <v>77</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>77</v>
@@ -4229,22 +4399,22 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>259</v>
+        <v>172</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>77</v>
@@ -4253,7 +4423,7 @@
         <v>77</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>77</v>
@@ -4261,42 +4431,42 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>260</v>
+        <v>174</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>261</v>
+        <v>77</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>130</v>
+        <v>175</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>262</v>
+        <v>176</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>263</v>
+        <v>177</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>133</v>
+        <v>178</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>77</v>
@@ -4321,13 +4491,13 @@
         <v>77</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>77</v>
+        <v>181</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>77</v>
+        <v>182</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>77</v>
@@ -4345,22 +4515,22 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>264</v>
+        <v>183</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>77</v>
@@ -4369,7 +4539,7 @@
         <v>77</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>77</v>
+        <v>184</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>77</v>
@@ -4377,7 +4547,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>265</v>
+        <v>185</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4385,10 +4555,10 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>77</v>
@@ -4397,20 +4567,22 @@
         <v>77</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>219</v>
+        <v>98</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>266</v>
+        <v>186</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="M26" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="N26" t="s" s="2">
-        <v>268</v>
+        <v>189</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>77</v>
@@ -4420,10 +4592,10 @@
         <v>77</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>77</v>
+        <v>219</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>77</v>
+        <v>191</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>77</v>
@@ -4435,13 +4607,13 @@
         <v>77</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>223</v>
+        <v>77</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>269</v>
+        <v>77</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>270</v>
+        <v>77</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>77</v>
@@ -4459,13 +4631,13 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>265</v>
+        <v>192</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>77</v>
@@ -4474,16 +4646,16 @@
         <v>96</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>271</v>
+        <v>193</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>272</v>
+        <v>194</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>77</v>
@@ -4491,7 +4663,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>273</v>
+        <v>195</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4511,21 +4683,21 @@
         <v>77</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>163</v>
+        <v>86</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>274</v>
+        <v>196</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="M27" s="2"/>
-      <c r="N27" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>77</v>
       </c>
@@ -4537,7 +4709,7 @@
         <v>77</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>77</v>
+        <v>199</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>77</v>
@@ -4573,7 +4745,7 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>273</v>
+        <v>200</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
@@ -4588,16 +4760,16 @@
         <v>96</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>168</v>
+        <v>201</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>277</v>
+        <v>202</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>77</v>
@@ -4605,7 +4777,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>278</v>
+        <v>203</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4616,7 +4788,7 @@
         <v>75</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>77</v>
@@ -4625,23 +4797,19 @@
         <v>77</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>172</v>
+        <v>204</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>279</v>
+        <v>205</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>77</v>
       </c>
@@ -4689,13 +4857,13 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>278</v>
+        <v>207</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>77</v>
@@ -4704,16 +4872,16 @@
         <v>96</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>177</v>
+        <v>208</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>282</v>
+        <v>209</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -4721,7 +4889,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>283</v>
+        <v>210</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4741,21 +4909,21 @@
         <v>77</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>284</v>
+        <v>212</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M29" s="2"/>
-      <c r="N29" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>77</v>
       </c>
@@ -4803,7 +4971,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>283</v>
+        <v>215</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
@@ -4818,16 +4986,16 @@
         <v>96</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>287</v>
+        <v>217</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -4835,15 +5003,17 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="B30" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="C30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>84</v>
@@ -4855,20 +5025,20 @@
         <v>77</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>181</v>
+        <v>144</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>289</v>
+        <v>145</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>290</v>
+        <v>146</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>77</v>
@@ -4893,13 +5063,13 @@
         <v>77</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>185</v>
+        <v>77</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>186</v>
+        <v>77</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>187</v>
+        <v>77</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>77</v>
@@ -4917,13 +5087,13 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>288</v>
+        <v>141</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>77</v>
@@ -4932,16 +5102,16 @@
         <v>96</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>188</v>
+        <v>149</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>291</v>
+        <v>152</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -4949,7 +5119,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>292</v>
+        <v>154</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4972,18 +5142,16 @@
         <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>293</v>
+        <v>86</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>294</v>
+        <v>155</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>295</v>
+        <v>156</v>
       </c>
       <c r="M31" s="2"/>
-      <c r="N31" t="s" s="2">
-        <v>296</v>
-      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>77</v>
       </c>
@@ -5031,7 +5199,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>292</v>
+        <v>157</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
@@ -5040,22 +5208,22 @@
         <v>84</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>297</v>
+        <v>77</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>298</v>
+        <v>158</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>299</v>
+        <v>77</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5063,18 +5231,18 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>300</v>
+        <v>159</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>77</v>
@@ -5086,15 +5254,17 @@
         <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>301</v>
+        <v>130</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>302</v>
+        <v>131</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="M32" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>77</v>
@@ -5131,37 +5301,37 @@
         <v>77</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>77</v>
+        <v>162</v>
       </c>
       <c r="AC32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>77</v>
+        <v>148</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>300</v>
+        <v>163</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>304</v>
+        <v>158</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
@@ -5175,7 +5345,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>305</v>
+        <v>164</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5186,31 +5356,31 @@
         <v>75</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>246</v>
+        <v>104</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>306</v>
+        <v>165</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>307</v>
+        <v>166</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>308</v>
+        <v>167</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>309</v>
+        <v>168</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>77</v>
@@ -5235,13 +5405,13 @@
         <v>77</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>77</v>
@@ -5259,13 +5429,13 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>305</v>
+        <v>172</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>77</v>
@@ -5274,16 +5444,16 @@
         <v>96</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>310</v>
+        <v>173</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>311</v>
+        <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -5291,7 +5461,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>312</v>
+        <v>174</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5311,19 +5481,23 @@
         <v>77</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>86</v>
+        <v>175</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>254</v>
+        <v>176</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>77</v>
       </c>
@@ -5347,13 +5521,13 @@
         <v>77</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>77</v>
+        <v>181</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>77</v>
+        <v>182</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>77</v>
@@ -5371,7 +5545,7 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>256</v>
+        <v>183</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>75</v>
@@ -5383,10 +5557,10 @@
         <v>77</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>77</v>
@@ -5395,7 +5569,7 @@
         <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>77</v>
+        <v>184</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>77</v>
@@ -5403,18 +5577,18 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>313</v>
+        <v>185</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>77</v>
@@ -5423,21 +5597,23 @@
         <v>77</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>131</v>
+        <v>186</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>258</v>
+        <v>187</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>189</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>77</v>
       </c>
@@ -5446,10 +5622,10 @@
         <v>77</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>77</v>
+        <v>221</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>77</v>
+        <v>191</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>77</v>
@@ -5485,22 +5661,22 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>259</v>
+        <v>192</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>77</v>
@@ -5509,7 +5685,7 @@
         <v>77</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -5517,43 +5693,41 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>314</v>
+        <v>195</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>261</v>
+        <v>77</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>262</v>
+        <v>196</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>263</v>
+        <v>197</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>77</v>
       </c>
@@ -5565,7 +5739,7 @@
         <v>77</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>77</v>
+        <v>199</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>77</v>
@@ -5601,22 +5775,22 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>264</v>
+        <v>200</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>127</v>
+        <v>201</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>77</v>
@@ -5625,7 +5799,7 @@
         <v>77</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -5633,7 +5807,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>315</v>
+        <v>203</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5641,7 +5815,7 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>84</v>
@@ -5653,23 +5827,19 @@
         <v>77</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>316</v>
+        <v>205</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>77</v>
       </c>
@@ -5693,13 +5863,13 @@
         <v>77</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>77</v>
@@ -5717,10 +5887,10 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>315</v>
+        <v>207</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>84</v>
@@ -5732,16 +5902,16 @@
         <v>96</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>320</v>
+        <v>208</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>321</v>
+        <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>322</v>
+        <v>209</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>77</v>
@@ -5749,7 +5919,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>323</v>
+        <v>210</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5769,23 +5939,21 @@
         <v>77</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>153</v>
+        <v>211</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>324</v>
+        <v>212</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>325</v>
+        <v>213</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>327</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>77</v>
       </c>
@@ -5833,7 +6001,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>323</v>
+        <v>215</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>75</v>
@@ -5848,16 +6016,16 @@
         <v>96</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>328</v>
+        <v>216</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>329</v>
+        <v>77</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>330</v>
+        <v>217</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>77</v>
@@ -5865,18 +6033,20 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="B39" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="C39" t="s" s="2">
-        <v>332</v>
+        <v>77</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>77</v>
@@ -5885,21 +6055,21 @@
         <v>77</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>333</v>
+        <v>143</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>334</v>
+        <v>144</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>77</v>
       </c>
@@ -5947,7 +6117,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>331</v>
+        <v>141</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
@@ -5962,16 +6132,16 @@
         <v>96</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>337</v>
+        <v>149</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>338</v>
+        <v>152</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>77</v>
@@ -5979,7 +6149,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>339</v>
+        <v>154</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5999,23 +6169,19 @@
         <v>77</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>293</v>
+        <v>86</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>340</v>
+        <v>155</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>343</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>77</v>
       </c>
@@ -6063,7 +6229,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>339</v>
+        <v>157</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
@@ -6075,13 +6241,13 @@
         <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>298</v>
+        <v>158</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>344</v>
+        <v>77</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -6095,11 +6261,11 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>345</v>
+        <v>159</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6112,26 +6278,24 @@
         <v>77</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>246</v>
+        <v>130</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>346</v>
+        <v>131</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>347</v>
+        <v>160</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>349</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>77</v>
       </c>
@@ -6167,19 +6331,19 @@
         <v>77</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>77</v>
+        <v>162</v>
       </c>
       <c r="AC41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>77</v>
+        <v>148</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>345</v>
+        <v>163</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>75</v>
@@ -6191,13 +6355,13 @@
         <v>77</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>350</v>
+        <v>158</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
@@ -6211,7 +6375,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>351</v>
+        <v>164</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6228,22 +6392,26 @@
         <v>77</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>254</v>
+        <v>165</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>77</v>
       </c>
@@ -6267,13 +6435,13 @@
         <v>77</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>77</v>
@@ -6291,7 +6459,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>256</v>
+        <v>172</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>75</v>
@@ -6303,10 +6471,10 @@
         <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>77</v>
@@ -6315,7 +6483,7 @@
         <v>77</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>77</v>
@@ -6323,18 +6491,18 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>352</v>
+        <v>174</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>77</v>
@@ -6343,21 +6511,23 @@
         <v>77</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>130</v>
+        <v>175</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>131</v>
+        <v>176</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>258</v>
+        <v>177</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>77</v>
       </c>
@@ -6381,13 +6551,13 @@
         <v>77</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>77</v>
+        <v>181</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>77</v>
+        <v>182</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>77</v>
@@ -6405,22 +6575,22 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>259</v>
+        <v>183</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>77</v>
@@ -6429,7 +6599,7 @@
         <v>77</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>77</v>
+        <v>184</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>77</v>
@@ -6437,42 +6607,42 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>353</v>
+        <v>185</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>261</v>
+        <v>77</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>262</v>
+        <v>186</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>263</v>
+        <v>187</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>133</v>
+        <v>188</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>139</v>
+        <v>189</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>77</v>
@@ -6482,10 +6652,10 @@
         <v>77</v>
       </c>
       <c r="R44" t="s" s="2">
-        <v>77</v>
+        <v>223</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>77</v>
+        <v>191</v>
       </c>
       <c r="T44" t="s" s="2">
         <v>77</v>
@@ -6521,22 +6691,22 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>264</v>
+        <v>192</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>127</v>
+        <v>193</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>77</v>
@@ -6545,7 +6715,7 @@
         <v>77</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>77</v>
@@ -6553,7 +6723,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>354</v>
+        <v>195</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6561,7 +6731,7 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>84</v>
@@ -6576,16 +6746,16 @@
         <v>85</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>355</v>
+        <v>86</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>356</v>
+        <v>196</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>357</v>
+        <v>197</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>358</v>
+        <v>198</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6599,7 +6769,7 @@
         <v>77</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>77</v>
+        <v>199</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>77</v>
@@ -6635,10 +6805,10 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>354</v>
+        <v>200</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>84</v>
@@ -6650,16 +6820,16 @@
         <v>96</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>148</v>
+        <v>201</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>359</v>
+        <v>202</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>77</v>
@@ -6667,7 +6837,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>360</v>
+        <v>203</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6675,7 +6845,7 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>84</v>
@@ -6690,13 +6860,13 @@
         <v>85</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>104</v>
+        <v>204</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>361</v>
+        <v>205</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>362</v>
+        <v>206</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6723,13 +6893,13 @@
         <v>77</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>185</v>
+        <v>77</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>362</v>
+        <v>77</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>363</v>
+        <v>77</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>77</v>
@@ -6747,10 +6917,10 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>360</v>
+        <v>207</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>84</v>
@@ -6762,18 +6932,4152 @@
         <v>96</v>
       </c>
       <c r="AJ46" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F47" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P47" s="2"/>
+      <c r="Q47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P48" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="Q48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="AK46" t="s" s="2">
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="AL46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN46" t="s" s="2">
+      <c r="M71" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
+      <c r="O82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN82" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/StructureDefinition-openelis-patient.xlsx
+++ b/StructureDefinition-openelis-patient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3011" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3337" uniqueCount="428">
   <si>
     <t>Property</t>
   </si>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>OpenElis Patient</t>
+    <t>OpenELIS Patient</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-31T19:49:37+00:00</t>
+    <t>2022-02-03T09:57:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -456,7 +456,7 @@
     <t>Patient.identifier</t>
   </si>
   <si>
-    <t>4</t>
+    <t>5</t>
   </si>
   <si>
     <t xml:space="preserve">Identifier
@@ -694,6 +694,12 @@
   </si>
   <si>
     <t>http://openelis-global.org/pat_subjectNumber</t>
+  </si>
+  <si>
+    <t>stnumber</t>
+  </si>
+  <si>
+    <t>http://openelis-global.org/pat_stNumber</t>
   </si>
   <si>
     <t>guid</t>
@@ -1632,7 +1638,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN82"/>
+  <dimension ref="A1:AN91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -7063,15 +7069,17 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="B48" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>84</v>
@@ -7080,32 +7088,28 @@
         <v>77</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>225</v>
+        <v>143</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>226</v>
+        <v>144</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>229</v>
+        <v>146</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P48" t="s" s="2">
-        <v>230</v>
-      </c>
+      <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
         <v>77</v>
       </c>
@@ -7149,13 +7153,13 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>224</v>
+        <v>141</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>77</v>
@@ -7164,16 +7168,16 @@
         <v>96</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>231</v>
+        <v>149</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>232</v>
+        <v>151</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>77</v>
@@ -7181,7 +7185,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>233</v>
+        <v>154</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7189,7 +7193,7 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>84</v>
@@ -7201,23 +7205,19 @@
         <v>77</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>234</v>
+        <v>86</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>235</v>
+        <v>155</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>238</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>77</v>
       </c>
@@ -7265,31 +7265,31 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>233</v>
+        <v>157</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>239</v>
+        <v>158</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>240</v>
+        <v>77</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>241</v>
+        <v>77</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>77</v>
@@ -7297,11 +7297,11 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>242</v>
+        <v>159</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7317,23 +7317,21 @@
         <v>77</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>243</v>
+        <v>130</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>244</v>
+        <v>131</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>245</v>
+        <v>160</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>247</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>77</v>
       </c>
@@ -7369,19 +7367,19 @@
         <v>77</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>77</v>
+        <v>162</v>
       </c>
       <c r="AC50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>77</v>
+        <v>148</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>242</v>
+        <v>163</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>75</v>
@@ -7393,19 +7391,19 @@
         <v>77</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>248</v>
+        <v>158</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>249</v>
+        <v>77</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>250</v>
+        <v>77</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>77</v>
@@ -7413,7 +7411,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>251</v>
+        <v>164</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7421,7 +7419,7 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>84</v>
@@ -7430,7 +7428,7 @@
         <v>77</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>85</v>
@@ -7439,16 +7437,16 @@
         <v>104</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>252</v>
+        <v>165</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>253</v>
+        <v>166</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>254</v>
+        <v>167</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>255</v>
+        <v>168</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>77</v>
@@ -7476,10 +7474,10 @@
         <v>169</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>256</v>
+        <v>170</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>257</v>
+        <v>171</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>77</v>
@@ -7497,7 +7495,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>251</v>
+        <v>172</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>75</v>
@@ -7512,16 +7510,16 @@
         <v>96</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>258</v>
+        <v>173</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>259</v>
+        <v>77</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>260</v>
+        <v>127</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>77</v>
@@ -7529,7 +7527,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>261</v>
+        <v>174</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7537,7 +7535,7 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>84</v>
@@ -7552,19 +7550,19 @@
         <v>85</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>262</v>
+        <v>175</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>263</v>
+        <v>176</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>264</v>
+        <v>177</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>265</v>
+        <v>178</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>266</v>
+        <v>179</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>77</v>
@@ -7589,13 +7587,13 @@
         <v>77</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>77</v>
+        <v>181</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>77</v>
+        <v>182</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>77</v>
@@ -7613,7 +7611,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>261</v>
+        <v>183</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>75</v>
@@ -7628,24 +7626,24 @@
         <v>96</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>267</v>
+        <v>173</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>268</v>
+        <v>77</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>269</v>
+        <v>184</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>270</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>271</v>
+        <v>185</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7653,7 +7651,7 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>84</v>
@@ -7662,25 +7660,25 @@
         <v>77</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>272</v>
+        <v>98</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>273</v>
+        <v>186</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>274</v>
+        <v>187</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>275</v>
+        <v>188</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>276</v>
+        <v>189</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>77</v>
@@ -7690,10 +7688,10 @@
         <v>77</v>
       </c>
       <c r="R53" t="s" s="2">
-        <v>77</v>
+        <v>225</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>77</v>
+        <v>191</v>
       </c>
       <c r="T53" t="s" s="2">
         <v>77</v>
@@ -7729,7 +7727,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>271</v>
+        <v>192</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>75</v>
@@ -7744,16 +7742,16 @@
         <v>96</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>277</v>
+        <v>193</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>278</v>
+        <v>194</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>77</v>
@@ -7761,7 +7759,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>279</v>
+        <v>195</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7772,7 +7770,7 @@
         <v>75</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>77</v>
@@ -7784,20 +7782,18 @@
         <v>85</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>280</v>
+        <v>86</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>281</v>
+        <v>196</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>282</v>
+        <v>197</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>284</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>77</v>
       </c>
@@ -7809,7 +7805,7 @@
         <v>77</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>77</v>
+        <v>199</v>
       </c>
       <c r="T54" t="s" s="2">
         <v>77</v>
@@ -7845,13 +7841,13 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>279</v>
+        <v>200</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>77</v>
@@ -7860,16 +7856,16 @@
         <v>96</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>285</v>
+        <v>201</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>286</v>
+        <v>77</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>77</v>
@@ -7877,7 +7873,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>288</v>
+        <v>203</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7897,21 +7893,19 @@
         <v>77</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>289</v>
+        <v>205</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>290</v>
+        <v>206</v>
       </c>
       <c r="M55" s="2"/>
-      <c r="N55" t="s" s="2">
-        <v>291</v>
-      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>77</v>
       </c>
@@ -7935,13 +7929,13 @@
         <v>77</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>292</v>
+        <v>77</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>293</v>
+        <v>77</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>77</v>
@@ -7959,7 +7953,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>288</v>
+        <v>207</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>75</v>
@@ -7974,16 +7968,16 @@
         <v>96</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>294</v>
+        <v>208</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>295</v>
+        <v>77</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>296</v>
+        <v>209</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>77</v>
@@ -7991,7 +7985,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>297</v>
+        <v>210</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8011,23 +8005,21 @@
         <v>77</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>298</v>
+        <v>211</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>299</v>
+        <v>212</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>300</v>
+        <v>213</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>302</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>77</v>
       </c>
@@ -8075,7 +8067,7 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>297</v>
+        <v>215</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>75</v>
@@ -8090,16 +8082,16 @@
         <v>96</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>303</v>
+        <v>216</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>304</v>
+        <v>217</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>77</v>
@@ -8107,7 +8099,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>305</v>
+        <v>226</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8118,36 +8110,38 @@
         <v>75</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>306</v>
+        <v>227</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>307</v>
+        <v>228</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>308</v>
+        <v>229</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>309</v>
+        <v>230</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>310</v>
+        <v>231</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P57" s="2"/>
+      <c r="P57" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="Q57" t="s" s="2">
         <v>77</v>
       </c>
@@ -8191,13 +8185,13 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>305</v>
+        <v>226</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>77</v>
@@ -8206,16 +8200,16 @@
         <v>96</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>311</v>
+        <v>233</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>158</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>77</v>
+        <v>234</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>312</v>
+        <v>77</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>77</v>
@@ -8223,7 +8217,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>313</v>
+        <v>235</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8231,10 +8225,10 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>77</v>
@@ -8243,22 +8237,22 @@
         <v>77</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>314</v>
+        <v>236</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>315</v>
+        <v>237</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>316</v>
+        <v>238</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>317</v>
+        <v>239</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>318</v>
+        <v>240</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>77</v>
@@ -8307,7 +8301,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>313</v>
+        <v>235</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>75</v>
@@ -8319,19 +8313,19 @@
         <v>77</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>319</v>
+        <v>96</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>320</v>
+        <v>241</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>158</v>
+        <v>242</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>77</v>
+        <v>243</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>77</v>
@@ -8339,7 +8333,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>321</v>
+        <v>244</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8350,7 +8344,7 @@
         <v>75</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>77</v>
@@ -8359,19 +8353,23 @@
         <v>77</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>86</v>
+        <v>245</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>155</v>
+        <v>246</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>77</v>
       </c>
@@ -8419,31 +8417,31 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>157</v>
+        <v>244</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>158</v>
+        <v>250</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>77</v>
+        <v>251</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>77</v>
+        <v>252</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>77</v>
@@ -8451,18 +8449,18 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>322</v>
+        <v>253</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>77</v>
@@ -8471,21 +8469,23 @@
         <v>77</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>131</v>
+        <v>254</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>160</v>
+        <v>255</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>77</v>
       </c>
@@ -8509,13 +8509,13 @@
         <v>77</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>77</v>
+        <v>258</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>77</v>
+        <v>259</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>77</v>
@@ -8533,31 +8533,31 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>158</v>
+        <v>260</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>77</v>
+        <v>261</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>77</v>
+        <v>262</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>77</v>
@@ -8565,42 +8565,42 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>323</v>
+        <v>263</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>324</v>
+        <v>77</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>130</v>
+        <v>264</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>325</v>
+        <v>265</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>326</v>
+        <v>266</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>133</v>
+        <v>267</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>139</v>
+        <v>268</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>77</v>
@@ -8649,39 +8649,39 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>327</v>
+        <v>263</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>127</v>
+        <v>269</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>77</v>
+        <v>270</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>77</v>
+        <v>271</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>77</v>
+        <v>272</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>328</v>
+        <v>273</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8692,29 +8692,31 @@
         <v>75</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>175</v>
+        <v>274</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>329</v>
+        <v>275</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="M62" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="N62" t="s" s="2">
-        <v>331</v>
+        <v>278</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>77</v>
@@ -8739,13 +8741,13 @@
         <v>77</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>332</v>
+        <v>77</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>333</v>
+        <v>77</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>77</v>
@@ -8763,13 +8765,13 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>328</v>
+        <v>273</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>77</v>
@@ -8778,7 +8780,7 @@
         <v>96</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>334</v>
+        <v>279</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>158</v>
@@ -8787,7 +8789,7 @@
         <v>77</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>335</v>
+        <v>280</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>77</v>
@@ -8795,7 +8797,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>336</v>
+        <v>281</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8806,7 +8808,7 @@
         <v>75</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>77</v>
@@ -8815,20 +8817,22 @@
         <v>77</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>234</v>
+        <v>282</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>337</v>
+        <v>283</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M63" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="N63" t="s" s="2">
-        <v>339</v>
+        <v>286</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>77</v>
@@ -8877,13 +8881,13 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>336</v>
+        <v>281</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>77</v>
@@ -8892,16 +8896,16 @@
         <v>96</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>239</v>
+        <v>287</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>158</v>
+        <v>288</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>340</v>
+        <v>289</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>77</v>
@@ -8909,7 +8913,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>341</v>
+        <v>290</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8920,7 +8924,7 @@
         <v>75</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>77</v>
@@ -8932,19 +8936,17 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>243</v>
+        <v>175</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>342</v>
+        <v>291</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>344</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="M64" s="2"/>
       <c r="N64" t="s" s="2">
-        <v>247</v>
+        <v>293</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>77</v>
@@ -8969,13 +8971,13 @@
         <v>77</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>77</v>
+        <v>294</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>77</v>
+        <v>295</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>77</v>
@@ -8993,13 +8995,13 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>341</v>
+        <v>290</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>77</v>
@@ -9008,16 +9010,16 @@
         <v>96</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>248</v>
+        <v>296</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>345</v>
+        <v>298</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>77</v>
@@ -9025,7 +9027,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>346</v>
+        <v>299</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9048,17 +9050,19 @@
         <v>77</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>347</v>
+        <v>301</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="M65" s="2"/>
+        <v>302</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="N65" t="s" s="2">
-        <v>349</v>
+        <v>304</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>77</v>
@@ -9107,7 +9111,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>346</v>
+        <v>299</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>75</v>
@@ -9122,7 +9126,7 @@
         <v>96</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>158</v>
@@ -9131,7 +9135,7 @@
         <v>77</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>350</v>
+        <v>306</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>77</v>
@@ -9139,7 +9143,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>351</v>
+        <v>307</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9150,7 +9154,7 @@
         <v>75</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>77</v>
@@ -9162,17 +9166,19 @@
         <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>104</v>
+        <v>308</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>252</v>
+        <v>309</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="M66" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="N66" t="s" s="2">
-        <v>353</v>
+        <v>312</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>77</v>
@@ -9197,13 +9203,13 @@
         <v>77</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>169</v>
+        <v>77</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>256</v>
+        <v>77</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>257</v>
+        <v>77</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>77</v>
@@ -9221,13 +9227,13 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>351</v>
+        <v>307</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>77</v>
@@ -9236,7 +9242,7 @@
         <v>96</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>258</v>
+        <v>313</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>158</v>
@@ -9245,7 +9251,7 @@
         <v>77</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>354</v>
+        <v>314</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>77</v>
@@ -9253,7 +9259,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9264,7 +9270,7 @@
         <v>75</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>77</v>
@@ -9276,17 +9282,19 @@
         <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>211</v>
+        <v>316</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>356</v>
+        <v>317</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="M67" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="N67" t="s" s="2">
-        <v>358</v>
+        <v>320</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>77</v>
@@ -9335,22 +9343,22 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>359</v>
+        <v>77</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>96</v>
+        <v>321</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>360</v>
+        <v>322</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>158</v>
@@ -9359,7 +9367,7 @@
         <v>77</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>361</v>
+        <v>77</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>77</v>
@@ -9367,7 +9375,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>362</v>
+        <v>323</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9390,13 +9398,13 @@
         <v>77</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>204</v>
+        <v>86</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>363</v>
+        <v>155</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>364</v>
+        <v>156</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9447,7 +9455,7 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>362</v>
+        <v>157</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>75</v>
@@ -9459,13 +9467,13 @@
         <v>77</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>365</v>
+        <v>158</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
@@ -9479,11 +9487,11 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>366</v>
+        <v>324</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9502,20 +9510,18 @@
         <v>77</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>314</v>
+        <v>130</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>367</v>
+        <v>131</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>368</v>
+        <v>160</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>370</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>77</v>
       </c>
@@ -9563,7 +9569,7 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>366</v>
+        <v>163</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>75</v>
@@ -9575,13 +9581,13 @@
         <v>77</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>371</v>
+        <v>158</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>372</v>
+        <v>77</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
@@ -9595,39 +9601,43 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>373</v>
+        <v>325</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>77</v>
+        <v>326</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>155</v>
+        <v>327</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
+        <v>328</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>77</v>
       </c>
@@ -9675,22 +9685,22 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>157</v>
+        <v>329</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>77</v>
@@ -9707,11 +9717,11 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>374</v>
+        <v>330</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -9730,18 +9740,18 @@
         <v>77</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>130</v>
+        <v>175</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>131</v>
+        <v>331</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N71" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="O71" t="s" s="2">
         <v>77</v>
       </c>
@@ -9765,13 +9775,13 @@
         <v>77</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>77</v>
+        <v>334</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>77</v>
+        <v>335</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>77</v>
@@ -9789,7 +9799,7 @@
         <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>163</v>
+        <v>330</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>75</v>
@@ -9801,19 +9811,19 @@
         <v>77</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AJ71" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AK71" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="AK71" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AL71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>77</v>
+        <v>337</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>77</v>
@@ -9821,42 +9831,40 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>375</v>
+        <v>338</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>324</v>
+        <v>77</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>130</v>
+        <v>236</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="M72" s="2"/>
       <c r="N72" t="s" s="2">
-        <v>139</v>
+        <v>341</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>77</v>
@@ -9905,31 +9913,31 @@
         <v>77</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>127</v>
+        <v>241</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>77</v>
+        <v>342</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>77</v>
@@ -9937,7 +9945,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>376</v>
+        <v>343</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9945,10 +9953,10 @@
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>77</v>
@@ -9960,19 +9968,19 @@
         <v>77</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>175</v>
+        <v>245</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>377</v>
+        <v>344</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>378</v>
+        <v>345</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>379</v>
+        <v>346</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>380</v>
+        <v>249</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>77</v>
@@ -9997,13 +10005,13 @@
         <v>77</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>77</v>
@@ -10021,13 +10029,13 @@
         <v>77</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>376</v>
+        <v>343</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>77</v>
@@ -10036,16 +10044,16 @@
         <v>96</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>381</v>
+        <v>250</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>382</v>
+        <v>158</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>383</v>
+        <v>347</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>77</v>
@@ -10053,7 +10061,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>384</v>
+        <v>348</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10076,19 +10084,17 @@
         <v>77</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>225</v>
+        <v>282</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>385</v>
+        <v>349</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>387</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="M74" s="2"/>
       <c r="N74" t="s" s="2">
-        <v>388</v>
+        <v>351</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>77</v>
@@ -10137,7 +10143,7 @@
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>384</v>
+        <v>348</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>75</v>
@@ -10152,16 +10158,16 @@
         <v>96</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>389</v>
+        <v>287</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>390</v>
+        <v>158</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>391</v>
+        <v>352</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>77</v>
@@ -10169,18 +10175,18 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>392</v>
+        <v>353</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>393</v>
+        <v>77</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>77</v>
@@ -10192,18 +10198,18 @@
         <v>77</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>394</v>
+        <v>104</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>395</v>
+        <v>254</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="M75" s="2"/>
+      <c r="N75" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="O75" t="s" s="2">
         <v>77</v>
       </c>
@@ -10227,13 +10233,13 @@
         <v>77</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>77</v>
+        <v>258</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>77</v>
+        <v>259</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>77</v>
@@ -10251,13 +10257,13 @@
         <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>392</v>
+        <v>353</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>77</v>
@@ -10266,7 +10272,7 @@
         <v>96</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>398</v>
+        <v>260</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>158</v>
@@ -10275,7 +10281,7 @@
         <v>77</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>77</v>
@@ -10283,7 +10289,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>400</v>
+        <v>357</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10303,22 +10309,20 @@
         <v>77</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J76" t="s" s="2">
         <v>211</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>401</v>
+        <v>358</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>403</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>404</v>
+        <v>360</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>77</v>
@@ -10367,7 +10371,7 @@
         <v>77</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>400</v>
+        <v>357</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>75</v>
@@ -10376,22 +10380,22 @@
         <v>84</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>77</v>
+        <v>361</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>405</v>
+        <v>158</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>77</v>
+        <v>363</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>77</v>
@@ -10399,7 +10403,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>406</v>
+        <v>364</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10410,32 +10414,28 @@
         <v>75</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>314</v>
+        <v>204</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>407</v>
+        <v>365</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>410</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>77</v>
       </c>
@@ -10483,13 +10483,13 @@
         <v>77</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>406</v>
+        <v>364</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>77</v>
@@ -10498,7 +10498,7 @@
         <v>96</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>411</v>
+        <v>367</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>158</v>
@@ -10515,7 +10515,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>412</v>
+        <v>368</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10526,7 +10526,7 @@
         <v>75</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>77</v>
@@ -10538,16 +10538,20 @@
         <v>77</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>86</v>
+        <v>316</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>155</v>
+        <v>369</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="O78" t="s" s="2">
         <v>77</v>
       </c>
@@ -10595,25 +10599,25 @@
         <v>77</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>157</v>
+        <v>368</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>158</v>
+        <v>373</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>77</v>
+        <v>374</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>77</v>
@@ -10627,18 +10631,18 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>413</v>
+        <v>375</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>77</v>
@@ -10650,17 +10654,15 @@
         <v>77</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="M79" s="2"/>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>77</v>
@@ -10709,19 +10711,19 @@
         <v>77</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>158</v>
@@ -10741,11 +10743,11 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>414</v>
+        <v>376</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>324</v>
+        <v>129</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -10758,26 +10760,24 @@
         <v>77</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J80" t="s" s="2">
         <v>130</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>325</v>
+        <v>131</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>326</v>
+        <v>160</v>
       </c>
       <c r="M80" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="N80" t="s" s="2">
-        <v>139</v>
-      </c>
+      <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>77</v>
       </c>
@@ -10825,7 +10825,7 @@
         <v>77</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>327</v>
+        <v>163</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>75</v>
@@ -10840,7 +10840,7 @@
         <v>135</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>77</v>
@@ -10857,41 +10857,43 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>415</v>
+        <v>377</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>77</v>
+        <v>326</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>416</v>
+        <v>130</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>417</v>
+        <v>327</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>418</v>
+        <v>328</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="N81" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O81" t="s" s="2">
         <v>77</v>
       </c>
@@ -10939,31 +10941,31 @@
         <v>77</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>415</v>
+        <v>329</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>420</v>
+        <v>77</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>77</v>
@@ -10971,7 +10973,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>421</v>
+        <v>378</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10991,19 +10993,23 @@
         <v>77</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>104</v>
+        <v>175</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>422</v>
+        <v>379</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="M82" s="2"/>
-      <c r="N82" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>382</v>
+      </c>
       <c r="O82" t="s" s="2">
         <v>77</v>
       </c>
@@ -11027,13 +11033,13 @@
         <v>77</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>169</v>
+        <v>108</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>423</v>
+        <v>109</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>424</v>
+        <v>110</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>77</v>
@@ -11051,7 +11057,7 @@
         <v>77</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>421</v>
+        <v>378</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>84</v>
@@ -11066,18 +11072,1048 @@
         <v>96</v>
       </c>
       <c r="AJ82" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P86" s="2"/>
+      <c r="Q86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
+      <c r="O87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="N90" s="2"/>
+      <c r="O90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P90" s="2"/>
+      <c r="Q90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="AK82" t="s" s="2">
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
+      <c r="O91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P91" s="2"/>
+      <c r="Q91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AK91" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="AL82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN82" t="s" s="2">
+      <c r="AL91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN91" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/StructureDefinition-openelis-patient.xlsx
+++ b/StructureDefinition-openelis-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-03T09:57:16+00:00</t>
+    <t>2022-07-25T16:53:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1647,45 +1647,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.46875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.47265625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="14.84375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="99.16796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="99.171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="51.91796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="51.921875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="156.82421875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="40.80859375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="156.828125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="40.8125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="39.375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="39.37890625" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="40.0703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>

--- a/StructureDefinition-openelis-patient.xlsx
+++ b/StructureDefinition-openelis-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T00:55:10+00:00</t>
+    <t>2023-02-20T01:40:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openelis-patient.xlsx
+++ b/StructureDefinition-openelis-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T01:40:12+00:00</t>
+    <t>2023-02-20T01:58:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openelis-patient.xlsx
+++ b/StructureDefinition-openelis-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T01:58:23+00:00</t>
+    <t>2023-02-20T02:21:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openelis-patient.xlsx
+++ b/StructureDefinition-openelis-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T02:21:28+00:00</t>
+    <t>2023-02-20T12:30:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -9136,10 +9136,10 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>78</v>
@@ -9613,7 +9613,7 @@
         <v>76</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>78</v>

--- a/StructureDefinition-openelis-patient.xlsx
+++ b/StructureDefinition-openelis-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T05:49:08+00:00</t>
+    <t>2023-03-03T05:49:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openelis-patient.xlsx
+++ b/StructureDefinition-openelis-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T05:49:15+00:00</t>
+    <t>2023-03-05T22:47:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openelis-patient.xlsx
+++ b/StructureDefinition-openelis-patient.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://i-tech-uw.github.io/openelis-global-ig/StructureDefinition/openelis-patient</t>
+    <t>http://digi-uw.github.io/openelis-global-ig/StructureDefinition/openelis-patient</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T16:37:57+00:00</t>
+    <t>2025-05-14T18:24:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1814,17 +1814,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.2890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.47265625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.84375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="34.54296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.83984375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.7265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="50.07421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="42.9296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1833,28 +1833,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="51.921875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="44.51171875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="30.0" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="156.828125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="40.8125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="39.37890625" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="40.0703125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.71875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="134.453125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="34.98828125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="33.76171875" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="34.35546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4971,7 +4971,7 @@
         <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>17</v>
+        <v>204</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>205</v>
@@ -6055,7 +6055,7 @@
         <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>17</v>
+        <v>204</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>205</v>
@@ -7139,7 +7139,7 @@
         <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>17</v>
+        <v>204</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>205</v>
@@ -8223,7 +8223,7 @@
         <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>17</v>
+        <v>204</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>205</v>
@@ -9307,7 +9307,7 @@
         <v>100</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>17</v>
+        <v>204</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>205</v>

--- a/StructureDefinition-openelis-patient.xlsx
+++ b/StructureDefinition-openelis-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-14T18:24:04+00:00</t>
+    <t>2025-05-14T18:31:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
